--- a/Files/Tables/Equipment/Standard/Standard Armors.xlsx
+++ b/Files/Tables/Equipment/Standard/Standard Armors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ARMORS</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>RARITY</t>
-  </si>
-  <si>
-    <t>BONUS</t>
   </si>
   <si>
     <r>
@@ -93,6 +90,12 @@
       </rPr>
       <t>of the mod</t>
     </r>
+  </si>
+  <si>
+    <t>SOCKET COUNT</t>
+  </si>
+  <si>
+    <t>BONUS(ES)</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,12 +526,14 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -577,7 +582,10 @@
         <v>7</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">

--- a/Files/Tables/Equipment/Standard/Standard Armors.xlsx
+++ b/Files/Tables/Equipment/Standard/Standard Armors.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10EC52B4-0820-4934-8827-0AD4CD81D849}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
   <si>
     <t>ARMORS</t>
   </si>
@@ -97,11 +98,59 @@
   <si>
     <t>BONUS(ES)</t>
   </si>
+  <si>
+    <t>Redguard Heavy</t>
+  </si>
+  <si>
+    <t>Redguard Light</t>
+  </si>
+  <si>
+    <t>Imperial Centurion</t>
+  </si>
+  <si>
+    <t>Imperial Battlemage Palatine</t>
+  </si>
+  <si>
+    <t>Argonian Heavy</t>
+  </si>
+  <si>
+    <t>Argonian Light</t>
+  </si>
+  <si>
+    <t>Khajiit Heavy</t>
+  </si>
+  <si>
+    <t>Khajiit Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosmer Heavy </t>
+  </si>
+  <si>
+    <t>Bosmer Light</t>
+  </si>
+  <si>
+    <t>Dunmer Heavy</t>
+  </si>
+  <si>
+    <t>Dunmer Light</t>
+  </si>
+  <si>
+    <t>Altmer Heavy</t>
+  </si>
+  <si>
+    <t>Altmer Light</t>
+  </si>
+  <si>
+    <t>Breton Heavy</t>
+  </si>
+  <si>
+    <t>Breton Light</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,25 +562,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -544,7 +594,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -555,8 +605,8 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -588,8 +638,396 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
       <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Files/Tables/Equipment/Standard/Standard Armors.xlsx
+++ b/Files/Tables/Equipment/Standard/Standard Armors.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10EC52B4-0820-4934-8827-0AD4CD81D849}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>ARMORS</t>
   </si>
@@ -99,58 +98,16 @@
     <t>BONUS(ES)</t>
   </si>
   <si>
-    <t>Redguard Heavy</t>
-  </si>
-  <si>
-    <t>Redguard Light</t>
-  </si>
-  <si>
     <t>Imperial Centurion</t>
   </si>
   <si>
     <t>Imperial Battlemage Palatine</t>
-  </si>
-  <si>
-    <t>Argonian Heavy</t>
-  </si>
-  <si>
-    <t>Argonian Light</t>
-  </si>
-  <si>
-    <t>Khajiit Heavy</t>
-  </si>
-  <si>
-    <t>Khajiit Light</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosmer Heavy </t>
-  </si>
-  <si>
-    <t>Bosmer Light</t>
-  </si>
-  <si>
-    <t>Dunmer Heavy</t>
-  </si>
-  <si>
-    <t>Dunmer Light</t>
-  </si>
-  <si>
-    <t>Altmer Heavy</t>
-  </si>
-  <si>
-    <t>Altmer Light</t>
-  </si>
-  <si>
-    <t>Breton Heavy</t>
-  </si>
-  <si>
-    <t>Breton Light</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,26 +519,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:B94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
@@ -594,7 +551,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -605,8 +562,8 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -638,395 +595,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
